--- a/docs/notes/프로젝트_관리.xlsx
+++ b/docs/notes/프로젝트_관리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프로젝트\하루하루\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\human\haruharu\docs\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="218">
   <si>
     <t xml:space="preserve">프로젝트 주제 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1699,6 +1699,98 @@
   </si>
   <si>
     <t>공공API data 실행할때마다 DB저장 및 갱신될수있게( 응답 데이터 정리 및 JSON 변환 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 임시로 - 데모버전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정원민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정원민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신제윤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최주호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형섭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임대회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">역할 분담, 간트차트, WBS, </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수집, 전처리, 확률에 맞게 얼마나 잘 응답하느냐, 얼마나 멋잇게 유저들아게 보여주느냐,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나로 통합하는과정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2201,15 +2293,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2225,17 +2317,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="7" spans="1:16">
+      <c r="J7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" t="s">
+        <v>205</v>
+      </c>
+      <c r="N7" t="s">
+        <v>202</v>
+      </c>
+      <c r="O7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2246,7 +2352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -2256,8 +2362,14 @@
       <c r="C9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2267,8 +2379,23 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" t="s">
+        <v>216</v>
+      </c>
+      <c r="O10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2278,8 +2405,17 @@
       <c r="C11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>199</v>
+      </c>
+      <c r="P11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
@@ -2289,8 +2425,17 @@
       <c r="C12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2300,63 +2445,96 @@
       <c r="C13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="H17" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="J18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="J20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2364,7 +2542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2372,7 +2550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2380,7 +2558,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2388,7 +2566,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2606,7 +2784,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="33">
+    <row r="35" spans="1:3">
       <c r="A35" s="11" t="s">
         <v>110</v>
       </c>
@@ -2614,7 +2792,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="33">
+    <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
         <v>112</v>
       </c>
@@ -2622,7 +2800,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="33">
+    <row r="37" spans="1:3">
       <c r="A37" s="11" t="s">
         <v>114</v>
       </c>
@@ -2630,7 +2808,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="33">
+    <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
         <v>116</v>
       </c>
